--- a/proyecto/data/info.xlsx
+++ b/proyecto/data/info.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -467,12 +467,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LUCAS CORTES</t>
+          <t>LUCAS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>lucas</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -483,10 +483,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="n"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LUCAS CORTES</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/proyecto/data/info.xlsx
+++ b/proyecto/data/info.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -467,12 +467,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LUCAS</t>
+          <t>LUCAS CORTES</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>lucas</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -483,28 +483,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>LUCAS CORTES</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n"/>
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/proyecto/data/info.xlsx
+++ b/proyecto/data/info.xlsx
@@ -1,38 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/Dropbox/Git/ELO328/proyecto/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F18293-6CFA-A446-8E6E-5641954EED68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="820" windowWidth="25040" windowHeight="14160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="820" windowWidth="25040" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" calcOnSave="0"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Deudas</t>
+  </si>
+  <si>
+    <t>LUCAS CORTES</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,81 +79,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -425,68 +394,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="27.1640625" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Departamento</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Correo</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Deudas</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>LUCAS CORTES</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>100000</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="n"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/proyecto/data/info.xlsx
+++ b/proyecto/data/info.xlsx
@@ -1,66 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/Dropbox/Git/ELO328/proyecto/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F18293-6CFA-A446-8E6E-5641954EED68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="820" windowWidth="25040" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="820" windowWidth="25040" windowHeight="14160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1" calcOnSave="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Departamento</t>
-  </si>
-  <si>
-    <t>Correo</t>
-  </si>
-  <si>
-    <t>Deudas</t>
-  </si>
-  <si>
-    <t>LUCAS CORTES</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -79,22 +51,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -394,52 +425,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col width="27.1640625" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Departamento</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Correo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Deudas</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EEE</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LUCAS CORTES</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>3</v>
       </c>
+      <c r="D3" t="n">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/proyecto/data/info.xlsx
+++ b/proyecto/data/info.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -467,44 +467,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>LUCAS CORTES</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EEE</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>LUCAS CORTES</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n"/>
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/proyecto/data/info.xlsx
+++ b/proyecto/data/info.xlsx
@@ -430,37 +430,43 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col width="27.1640625" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="22.5" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nombre</t>
+          <t>NOMBRE</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Departamento</t>
+          <t>DEPTO.</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Correo</t>
+          <t>CORREO</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Deudas</t>
+          <t>DEUDAS</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>FECHA DE MODIFICACIÓN</t>
         </is>
       </c>
     </row>
@@ -480,6 +486,11 @@
       </c>
       <c r="D2" t="n">
         <v>100000</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2020/12/09, 18:55:05</t>
+        </is>
       </c>
     </row>
     <row r="3">
